--- a/plan/test/helper/単体テスト仕様書-ProductHelper.xlsx
+++ b/plan/test/helper/単体テスト仕様書-ProductHelper.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907E6D45-8A2F-4780-8306-23B3AEC7686F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F63F189-9831-4032-A818-6F3E135BF17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EmployeeHelper" sheetId="166" r:id="rId1"/>
+    <sheet name="ProductHelper" sheetId="166" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
@@ -160,10 +160,6 @@
     <rPh sb="26" eb="28">
       <t>ハンバイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>helper/EmployeeHelper.java</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -227,13 +223,7 @@
         -categoryName: 文具
     }</t>
     <rPh sb="63" eb="65">
-      <t>ブング</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>ブング</t>
-    </rPh>
-    <rPh sb="327" eb="328">
-      <t>カエ</t>
+      <t>ブングブングカエ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -249,6 +239,10 @@
     <rPh sb="78" eb="79">
       <t>カエ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>helper/ProductHelper.java</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -852,7 +846,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:L6"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -910,7 +904,7 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -989,17 +983,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -1016,17 +1010,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
